--- a/hipotezy.xlsx
+++ b/hipotezy.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/PracaMagPiel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{454A16D9-0745-5B45-9D1A-CA4B38375D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6501836-7394-EC48-853E-3EA85704B824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="2680" windowWidth="28040" windowHeight="17360" activeTab="1" xr2:uid="{702486CE-5565-204A-86A6-8FFDC89F2697}"/>
+    <workbookView xWindow="6860" yWindow="2480" windowWidth="28040" windowHeight="17360" activeTab="2" xr2:uid="{702486CE-5565-204A-86A6-8FFDC89F2697}"/>
   </bookViews>
   <sheets>
     <sheet name="hipoteza 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>pyt</t>
   </si>
@@ -144,6 +144,45 @@
   </si>
   <si>
     <t>Czy, w celu radzenia sobie ze stresem związanym z pracą zawodową, sięga Pan/i po używki?</t>
+  </si>
+  <si>
+    <t>Czy posiada Pan/i pasję pozazawodową, którą rozwija ?</t>
+  </si>
+  <si>
+    <t>Czy czynnie uczestniczy, Pan/i w życiu rodzinnym i imprezach okolicznościowych przyjaciół?</t>
+  </si>
+  <si>
+    <t>Czy rodzina wspiera Pana/ią, w godzeniu obowiązków domowych z pracą?</t>
+  </si>
+  <si>
+    <t>Czy w Pana/i życiu przeważa?</t>
+  </si>
+  <si>
+    <t>Czy  Pana/i praca zawodowa, jest powodem niezgody z życiowym partnerem?</t>
+  </si>
+  <si>
+    <t>Czy zna Pan/i, pielęgniarki/pielęgniarzy, u których, doszło do rozpadu związku z powodu, pracy w zawodzie?</t>
+  </si>
+  <si>
+    <t>Czy kiedykolwiek rozważał/a Pan/i, rezygnację z zawodu na rzecz szczęścia rodziny?</t>
+  </si>
+  <si>
+    <t>Czy  zdarza się, że pracuje Pan/i, mimo wystąpienia własnej choroby, choroby członka rodziny?</t>
+  </si>
+  <si>
+    <t>Czy empatia, była głównym kryterium wyboru zawodu, przez Pana/nią?</t>
+  </si>
+  <si>
+    <t>Czy uważa Pan/i, że jest wypalona zawodowo?</t>
+  </si>
+  <si>
+    <t>Czy z perspektywy czasu uważa Pan/i, że dokonał/a dobrego wyboru ścieżki zawodowej?</t>
+  </si>
+  <si>
+    <t>Czy gdyby Pana/i dziecko, zdecydowało się spełniać w pielęgniarstwie, wspierałby je Pan/i  w tym wyborze?</t>
+  </si>
+  <si>
+    <t>Czy choruje Pan/i  na ?</t>
   </si>
 </sst>
 </file>
@@ -496,6 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD54924F-6908-0A49-A53F-3A0AF3DD1072}">
+  <sheetPr codeName="Arkusz1"/>
   <dimension ref="B4:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -769,10 +809,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D600281-B0EC-6B42-BF3D-A09F7C55399B}">
-  <dimension ref="B4:M57"/>
+  <sheetPr codeName="Arkusz2"/>
+  <dimension ref="B4:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,65 +878,112 @@
       <c r="B21">
         <v>23</v>
       </c>
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>24</v>
       </c>
+      <c r="M24" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>26</v>
       </c>
+      <c r="M27" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="M36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39">
+        <v>29</v>
+      </c>
+      <c r="M39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42">
+      <c r="M42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45">
+      <c r="M45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48">
+      <c r="M48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51">
         <v>33</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51">
+      <c r="M51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B54">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54">
+      <c r="M54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B57">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57">
+      <c r="M57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B60">
         <v>36</v>
+      </c>
+      <c r="M60" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -905,9 +993,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260D4371-3226-3C44-8273-55E78D919DDA}">
+  <sheetPr codeName="Arkusz3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -917,6 +1006,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B1EDB0-F90D-2C44-A125-1E394D9F6104}">
+  <sheetPr codeName="Arkusz4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
